--- a/biology/Zoologie/Conus_nimbosus/Conus_nimbosus.xlsx
+++ b/biology/Zoologie/Conus_nimbosus/Conus_nimbosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus nimbosus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille d'une coquille adulte varie entre 33 mm et 65 mm. La couleur de la coquille, plutôt lisse, est d'un blanc rosé ou violacé, avec deux légères bandes marron, étroitement entourées de lignes de petits points chocolat. Le verticille présente des rainures tournantes serrées. La spire est plutôt plate et possède un apex blanc grisâtre[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille d'une coquille adulte varie entre 33 mm et 65 mm. La couleur de la coquille, plutôt lisse, est d'un blanc rosé ou violacé, avec deux légères bandes marron, étroitement entourées de lignes de petits points chocolat. Le verticille présente des rainures tournantes serrées. La spire est plutôt plate et possède un apex blanc grisâtre. 
 </t>
         </is>
       </c>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans l'océan Indien au large du Mozambique, de Madagascar, des Seychelles, de l'Inde et du Sri Lanka ; dans l'océan Pacifique au large de Papouasie-Nouvelle-Guinée, de Vanuatu et de Samoa.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce a une large aire de répartition et est présente dans des poches à travers l'océan Indien : Mozambique, Madagascar, Somalie, Seychelles,Inde et Sri Lanka ; et dans le Pacifique : Papouasie-Nouvelle-Guinée, Vanuatu, et Samoa. Cette espèce se trouve dans des poches à travers l'océan Indien et n'a pas de menaces connues pour sa population. L'aire de répartition fragmentée peut être due à un manque de données, et l'espèce pourrait en fait être plus répandue que ce que l'on sait actuellement. Elle a été évaluée comme étant de préoccupation mineure[2].
 </t>
         </is>
       </c>
@@ -573,24 +587,135 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce a une large aire de répartition et est présente dans des poches à travers l'océan Indien : Mozambique, Madagascar, Somalie, Seychelles,Inde et Sri Lanka ; et dans le Pacifique : Papouasie-Nouvelle-Guinée, Vanuatu, et Samoa. Cette espèce se trouve dans des poches à travers l'océan Indien et n'a pas de menaces connues pour sa population. L'aire de répartition fragmentée peut être due à un manque de données, et l'espèce pourrait en fait être plus répandue que ce que l'on sait actuellement. Elle a été évaluée comme étant de préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_nimbosus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_nimbosus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus nimbosus a été décrite pour la première fois en 1792 par le conchyliologiste danois Christian Hee Hwass dans « Encyclopédie méthodique ou par ordre de matières Histoire naturelle des vers - volume 1 » écrite par le naturaliste français Jean-Guillaume Bruguière (1750-1798)[3],[4].
-Synonymes
-Conus (Phasmoconus) nimbosus Hwass, 1792 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus nimbosus a été décrite pour la première fois en 1792 par le conchyliologiste danois Christian Hee Hwass dans « Encyclopédie méthodique ou par ordre de matières Histoire naturelle des vers - volume 1 » écrite par le naturaliste français Jean-Guillaume Bruguière (1750-1798),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_nimbosus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_nimbosus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Phasmoconus) nimbosus Hwass, 1792 · appellation alternative
 Conus nimbosus nanoclarus Bozzetti, 2017 · non accepté
 Conus nimbosus nimbosus Hwass in Bruguière, 1792 · non accepté
 Conus tenellus Holten, 1802 · non accepté
 Conus tenellus Dillwyn, 1817 · non accepté
 Nimboconus nimbosus (Hwass, 1792) · non accepté
 Phasmoconus (Nimboconus) nimbosus (Hwass, 1792) · non accepté
-Rolaniconus nimbosus (Hwass, 1792) · non accepté
-Sous-espèces
-Conus nimbosus nanoclarus Bozzetti, 2017, accepté en tant que Conus nimbosus Hwass, 1792
+Rolaniconus nimbosus (Hwass, 1792) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_nimbosus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_nimbosus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Conus nimbosus nanoclarus Bozzetti, 2017, accepté en tant que Conus nimbosus Hwass, 1792
 Conus nimbosus nimbosus Hwass in Bruguière, 1792, accepté en tant que Conus nimbosus Hwass, 1792</t>
         </is>
       </c>
